--- a/SpotifyBug-EkinAdaÖzen.xlsx
+++ b/SpotifyBug-EkinAdaÖzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eozen\Documents\GitHub\SpotifyBug-EkinAdaOzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DAF5D4-DE65-485B-9FDF-935AA3A4DE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA21CE-AB89-4DC3-AA3F-53DC2EB9B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BDDA43B-EB99-4490-B9E4-BE3F9FEB775C}"/>
   </bookViews>
@@ -855,13 +855,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -872,22 +869,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -896,20 +878,35 @@
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1634,7 +1631,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1652,238 +1649,238 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="9">
         <v>45993</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13">
+      <c r="A4" s="13"/>
+      <c r="B4" s="7">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="7"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="13">
+      <c r="A5" s="13"/>
+      <c r="B5" s="7">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
     </row>
     <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="13">
+      <c r="A6" s="13"/>
+      <c r="B6" s="7">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="13">
+      <c r="A7" s="13"/>
+      <c r="B7" s="7">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="7"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="13">
+      <c r="A8" s="13"/>
+      <c r="B8" s="7">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="7"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="13">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="7"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="13">
+      <c r="A10" s="13"/>
+      <c r="B10" s="7">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="17"/>
     </row>
     <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
     <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,15 +1914,15 @@
     <row r="36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="I3:I10"/>
+    <mergeCell ref="J3:J10"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="H3:H10"/>
     <mergeCell ref="A3:A10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="D3:D10"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="G3:G10"/>
-    <mergeCell ref="I3:I10"/>
-    <mergeCell ref="J3:J10"/>
-    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B12" r:id="rId1" xr:uid="{850098FC-2D5B-4271-89FA-BF5333479AB1}"/>

--- a/SpotifyBug-EkinAdaÖzen.xlsx
+++ b/SpotifyBug-EkinAdaÖzen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eozen\Documents\GitHub\SpotifyBug-EkinAdaOzen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDA21CE-AB89-4DC3-AA3F-53DC2EB9B211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA8D4D-4AF9-4BCA-A789-08A2A553C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BDDA43B-EB99-4490-B9E4-BE3F9FEB775C}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Steps</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Go to the main page.</t>
-  </si>
-  <si>
-    <t>Low</t>
   </si>
   <si>
     <t>Date</t>
@@ -290,7 +287,16 @@
     <t xml:space="preserve">Video link: </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19Zy2vtXG3cYamCtJOSM8k59Neixt_yQf/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/19Zy2vtXG3cYamCtJOSM8k59Neixt_yQf/view</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,12 +671,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -690,6 +690,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,7 +873,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,17 +887,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -887,17 +908,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -905,8 +920,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -958,10 +980,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
       <color rgb="FFCCECFF"/>
       <color rgb="FF0066FF"/>
       <color rgb="FFFFFF99"/>
-      <color rgb="FFFFFF66"/>
       <color rgb="FFFFFFFF"/>
     </mruColors>
   </colors>
@@ -1628,10 +1650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF545851-3C28-413F-9EEB-B7CBB5EC710A}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,29 +1670,30 @@
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
@@ -1682,21 +1705,24 @@
         <v>3</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
@@ -1705,165 +1731,175 @@
         <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>25</v>
+      <c r="F3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="9">
+        <v>23</v>
+      </c>
+      <c r="I3" s="10">
         <v>45993</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="16"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="19"/>
+    </row>
+    <row r="6" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="16"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="16"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="19"/>
+    </row>
+    <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="19"/>
+    </row>
+    <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="16"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="19"/>
+    </row>
+    <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="16"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="17"/>
-    </row>
-    <row r="13" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="1"/>
     </row>
@@ -1913,7 +1949,9 @@
     <row r="35" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="K3:K10"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="I3:I10"/>
     <mergeCell ref="J3:J10"/>
     <mergeCell ref="A1:J1"/>
@@ -1925,7 +1963,7 @@
     <mergeCell ref="G3:G10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B12" r:id="rId1" xr:uid="{850098FC-2D5B-4271-89FA-BF5333479AB1}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{996B63CF-18E7-4BE2-A9DD-68CBA0520427}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/SpotifyBug-EkinAdaÖzen.xlsx
+++ b/SpotifyBug-EkinAdaÖzen.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eozen\Documents\GitHub\SpotifyBug-EkinAdaOzen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eozen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EA8D4D-4AF9-4BCA-A789-08A2A553C8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B5998-F685-427F-92B0-C615D0A4FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BDDA43B-EB99-4490-B9E4-BE3F9FEB775C}"/>
   </bookViews>
@@ -296,7 +296,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>Fixed</t>
   </si>
 </sst>
 </file>
@@ -899,6 +899,10 @@
     <xf numFmtId="49" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -908,27 +912,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,19 +1671,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1721,7 +1721,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="7">
@@ -1730,149 +1730,149 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="12">
         <v>45993</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="K3" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="19"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="A5" s="16"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="19"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="19"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="19"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="7">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="19"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="7">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="19"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="19"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1882,10 +1882,10 @@
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>

--- a/SpotifyBug-EkinAdaÖzen.xlsx
+++ b/SpotifyBug-EkinAdaÖzen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eozen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223B5998-F685-427F-92B0-C615D0A4FC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159E99AC-E1AB-4108-B55F-4C102A169DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1BDDA43B-EB99-4490-B9E4-BE3F9FEB775C}"/>
+    <workbookView xWindow="345" yWindow="3030" windowWidth="21600" windowHeight="12570" xr2:uid="{1BDDA43B-EB99-4490-B9E4-BE3F9FEB775C}"/>
   </bookViews>
   <sheets>
     <sheet name="SpotifyBug-EkinAdaÖzen" sheetId="5" r:id="rId1"/>
@@ -287,9 +287,6 @@
     <t xml:space="preserve">Video link: </t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19Zy2vtXG3cYamCtJOSM8k59Neixt_yQf/view</t>
-  </si>
-  <si>
     <t>Medium</t>
   </si>
   <si>
@@ -297,6 +294,9 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/178-tO5hDr7ANETGhvEkrImIWjKzfmaZx/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -1653,7 +1653,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1717,7 +1717,7 @@
         <v>6</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1737,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>24</v>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C12" s="11"/>
     </row>
